--- a/data/processed/rhyolitic_glasses/kraw_summaries_A876.xlsx
+++ b/data/processed/rhyolitic_glasses/kraw_summaries_A876.xlsx
@@ -489,7 +489,7 @@
         <v>2.05</v>
       </c>
       <c r="E2">
-        <v>25.73</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="F2">
         <v>3.81</v>
@@ -498,22 +498,22 @@
         <v>9.029999999999999</v>
       </c>
       <c r="H2">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="I2">
-        <v>25.73</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="J2">
-        <v>3.81</v>
+        <v>3.8</v>
       </c>
       <c r="K2">
-        <v>3.28</v>
+        <v>2.88</v>
       </c>
       <c r="L2">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="M2">
-        <v>24.32</v>
+        <v>4.62</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -533,7 +533,7 @@
         <v>1.92</v>
       </c>
       <c r="E3">
-        <v>26.02</v>
+        <v>10.47</v>
       </c>
       <c r="F3">
         <v>3.95</v>
@@ -545,19 +545,19 @@
         <v>4.74</v>
       </c>
       <c r="I3">
-        <v>26.02</v>
+        <v>10.47</v>
       </c>
       <c r="J3">
         <v>3.94</v>
       </c>
       <c r="K3">
-        <v>3.16</v>
+        <v>3.57</v>
       </c>
       <c r="L3">
         <v>4.74</v>
       </c>
       <c r="M3">
-        <v>24.3</v>
+        <v>5.08</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -577,7 +577,7 @@
         <v>1.45</v>
       </c>
       <c r="E4">
-        <v>27.23</v>
+        <v>13.19</v>
       </c>
       <c r="F4">
         <v>3.47</v>
@@ -586,22 +586,22 @@
         <v>12.68</v>
       </c>
       <c r="H4">
-        <v>4.21</v>
+        <v>4.18</v>
       </c>
       <c r="I4">
-        <v>27.23</v>
+        <v>13.19</v>
       </c>
       <c r="J4">
-        <v>3.49</v>
+        <v>3.47</v>
       </c>
       <c r="K4">
-        <v>3.7</v>
+        <v>4.02</v>
       </c>
       <c r="L4">
-        <v>4.21</v>
+        <v>4.18</v>
       </c>
       <c r="M4">
-        <v>24.38</v>
+        <v>5.41</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -621,7 +621,7 @@
         <v>2.07</v>
       </c>
       <c r="E5">
-        <v>25.75</v>
+        <v>9.76</v>
       </c>
       <c r="F5">
         <v>3.95</v>
@@ -630,22 +630,22 @@
         <v>9.07</v>
       </c>
       <c r="H5">
-        <v>4.76</v>
+        <v>4.77</v>
       </c>
       <c r="I5">
-        <v>25.75</v>
+        <v>9.76</v>
       </c>
       <c r="J5">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="K5">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="L5">
-        <v>4.76</v>
+        <v>4.77</v>
       </c>
       <c r="M5">
-        <v>24.34</v>
+        <v>4.98</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -665,7 +665,7 @@
         <v>1.62</v>
       </c>
       <c r="E6">
-        <v>26.58</v>
+        <v>11.78</v>
       </c>
       <c r="F6">
         <v>3.41</v>
@@ -674,22 +674,22 @@
         <v>11.22</v>
       </c>
       <c r="H6">
-        <v>4.11</v>
+        <v>4.14</v>
       </c>
       <c r="I6">
-        <v>26.58</v>
+        <v>11.78</v>
       </c>
       <c r="J6">
-        <v>3.41</v>
+        <v>3.44</v>
       </c>
       <c r="K6">
-        <v>3.42</v>
+        <v>3.18</v>
       </c>
       <c r="L6">
-        <v>4.11</v>
+        <v>4.14</v>
       </c>
       <c r="M6">
-        <v>24.34</v>
+        <v>4.81</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
@@ -709,7 +709,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E7">
-        <v>237.97</v>
+        <v>236.78</v>
       </c>
       <c r="F7">
         <v>2.33</v>
@@ -718,22 +718,22 @@
         <v>236.75</v>
       </c>
       <c r="H7">
-        <v>2.79</v>
+        <v>2.81</v>
       </c>
       <c r="I7">
-        <v>237.97</v>
+        <v>236.78</v>
       </c>
       <c r="J7">
-        <v>2.31</v>
+        <v>2.33</v>
       </c>
       <c r="K7">
-        <v>5.54</v>
+        <v>4.95</v>
       </c>
       <c r="L7">
-        <v>2.79</v>
+        <v>2.81</v>
       </c>
       <c r="M7">
-        <v>24.73</v>
+        <v>6.13</v>
       </c>
       <c r="N7" t="s">
         <v>18</v>
